--- a/words.xlsx
+++ b/words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad Shah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F04D1-14F3-40F6-9F46-BC54494886BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBF4B6-49EF-43D0-96AA-D745482AB474}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F486E1B-9B78-4070-A5EF-3550AE21D130}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>Word</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>prevail</t>
-  </si>
-  <si>
-    <t>ghalib hona, raij hona</t>
   </si>
   <si>
     <t>intend</t>
@@ -431,6 +428,102 @@
   </si>
   <si>
     <t>tahafuz, nigrani</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>kafi, enough</t>
+  </si>
+  <si>
+    <t>fiery</t>
+  </si>
+  <si>
+    <t>taiz(fast), aag(fire)</t>
+  </si>
+  <si>
+    <t>unconscious</t>
+  </si>
+  <si>
+    <t>be khabar</t>
+  </si>
+  <si>
+    <t>conceal</t>
+  </si>
+  <si>
+    <t>chupana</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>taseer, asar andaz hona</t>
+  </si>
+  <si>
+    <t>dominate</t>
+  </si>
+  <si>
+    <t>galba pana, ghalib hona, raij hona (is to be superior in strength)</t>
+  </si>
+  <si>
+    <t>galba pana, ghalib hona, raij hona (is control by superior authority or power)</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>phalna, barhana</t>
+  </si>
+  <si>
+    <t>this is an expansion on a previous lesson.</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>amkaan</t>
+  </si>
+  <si>
+    <t>splended, marvellous, elegant</t>
+  </si>
+  <si>
+    <t>shaandar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sow </t>
+  </si>
+  <si>
+    <t>beeg bona</t>
+  </si>
+  <si>
+    <t>reap</t>
+  </si>
+  <si>
+    <t>katna</t>
+  </si>
+  <si>
+    <t>as they sow, so let them reap.</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>khwahish</t>
+  </si>
+  <si>
+    <t>your desire is to buy a new car</t>
+  </si>
+  <si>
+    <t>merely</t>
+  </si>
+  <si>
+    <t>mahaz</t>
+  </si>
+  <si>
+    <t>spectacle</t>
+  </si>
+  <si>
+    <t>tamasha, nazara</t>
   </si>
 </sst>
 </file>
@@ -840,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB758246-E4A9-48D7-84EE-CBBFBF89A660}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -905,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -929,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -961,240 +1054,240 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1202,98 +1295,219 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
         <v>110</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBF4B6-49EF-43D0-96AA-D745482AB474}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6DE899-6B45-4B24-90A2-7CF93A0712F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F486E1B-9B78-4070-A5EF-3550AE21D130}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
   <si>
     <t>Word</t>
   </si>
@@ -68,9 +68,6 @@
     <t>adaigi</t>
   </si>
   <si>
-    <t>abiding</t>
-  </si>
-  <si>
     <t>obligation</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>sahoolat</t>
-  </si>
-  <si>
-    <t>aasan</t>
   </si>
   <si>
     <t>exhorted</t>
@@ -220,9 +214,6 @@
     </r>
   </si>
   <si>
-    <t>baki rehna, paeydar</t>
-  </si>
-  <si>
     <t>inconvenient, inconvenience</t>
   </si>
   <si>
@@ -524,6 +515,210 @@
   </si>
   <si>
     <t>tamasha, nazara</t>
+  </si>
+  <si>
+    <t>fumble</t>
+  </si>
+  <si>
+    <t>ghabray phirna</t>
+  </si>
+  <si>
+    <t>blatant</t>
+  </si>
+  <si>
+    <t>gustakh</t>
+  </si>
+  <si>
+    <t>bardasht karna, pabandy karna, baki rehna, paeydar</t>
+  </si>
+  <si>
+    <t>abide</t>
+  </si>
+  <si>
+    <t>ehsaas</t>
+  </si>
+  <si>
+    <t>intuition/hunch</t>
+  </si>
+  <si>
+    <t>mashkook</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t>effluent</t>
+  </si>
+  <si>
+    <t>behta hua</t>
+  </si>
+  <si>
+    <t>puppets</t>
+  </si>
+  <si>
+    <t>kath putli</t>
+  </si>
+  <si>
+    <t>precise</t>
+  </si>
+  <si>
+    <t>ain mutabik hona</t>
+  </si>
+  <si>
+    <t>fist</t>
+  </si>
+  <si>
+    <t>mutthi, mukka</t>
+  </si>
+  <si>
+    <t>aasani</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>yakeenan</t>
+  </si>
+  <si>
+    <t>deed</t>
+  </si>
+  <si>
+    <t>amal, kam,  فعل</t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>meat(gosht)</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>shikaar</t>
+  </si>
+  <si>
+    <t>even it helps to remove skin from flesh of its prey.</t>
+  </si>
+  <si>
+    <t>accomplishment</t>
+  </si>
+  <si>
+    <t>success, kameyabi</t>
+  </si>
+  <si>
+    <t>faith</t>
+  </si>
+  <si>
+    <t>aimaan</t>
+  </si>
+  <si>
+    <t>self esteem</t>
+  </si>
+  <si>
+    <t>khud aitmadi</t>
+  </si>
+  <si>
+    <t>reconsider</t>
+  </si>
+  <si>
+    <t>dobara gor-o-fikar karna</t>
+  </si>
+  <si>
+    <t>legacy</t>
+  </si>
+  <si>
+    <t>wirasat, wirsa</t>
+  </si>
+  <si>
+    <t>people's concerns</t>
+  </si>
+  <si>
+    <t>logo ki raey, logo k khadshey</t>
+  </si>
+  <si>
+    <t>majboor karna</t>
+  </si>
+  <si>
+    <t>compel</t>
+  </si>
+  <si>
+    <t>abandon</t>
+  </si>
+  <si>
+    <t>chor dena, tarak kar dena</t>
+  </si>
+  <si>
+    <t>mislead</t>
+  </si>
+  <si>
+    <t>gumrah</t>
+  </si>
+  <si>
+    <t>treasure</t>
+  </si>
+  <si>
+    <t>khazana</t>
+  </si>
+  <si>
+    <t>groom</t>
+  </si>
+  <si>
+    <t>dolha</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>ehad karna, عہد کرنا</t>
+  </si>
+  <si>
+    <t>I pledeg to be the voice of voiceless.</t>
+  </si>
+  <si>
+    <t>repentance</t>
+  </si>
+  <si>
+    <t>toba, عہد کرنا</t>
+  </si>
+  <si>
+    <t>abode</t>
+  </si>
+  <si>
+    <t>thakana</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>paida war</t>
+  </si>
+  <si>
+    <t>assistance</t>
+  </si>
+  <si>
+    <t>madad, help</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>muntakili</t>
+  </si>
+  <si>
+    <t>courage</t>
+  </si>
+  <si>
+    <t>himat</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>tareed karna</t>
+  </si>
+  <si>
+    <t>I have a great admiration for her courage.</t>
   </si>
 </sst>
 </file>
@@ -933,10 +1128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB758246-E4A9-48D7-84EE-CBBFBF89A660}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -974,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -995,522 +1191,780 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="3" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="B69" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{E5B6A3AD-4651-44B9-A7E4-DCA0189186CC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6DE899-6B45-4B24-90A2-7CF93A0712F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872C132-5B2F-4CD2-BE9F-BD44FB431777}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F486E1B-9B78-4070-A5EF-3550AE21D130}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>Word</t>
   </si>
@@ -715,10 +715,208 @@
     <t>admire</t>
   </si>
   <si>
-    <t>tareed karna</t>
-  </si>
-  <si>
     <t>I have a great admiration for her courage.</t>
+  </si>
+  <si>
+    <t>tareed karna, tareef karna</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>manna, tasleem karna</t>
+  </si>
+  <si>
+    <t>you have to admit that he is a good person.</t>
+  </si>
+  <si>
+    <t>curse</t>
+  </si>
+  <si>
+    <t>lanat</t>
+  </si>
+  <si>
+    <t>sincerity</t>
+  </si>
+  <si>
+    <t>ikhlas</t>
+  </si>
+  <si>
+    <t>hypocrisy</t>
+  </si>
+  <si>
+    <t>munafkat</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>apnana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beyond </t>
+  </si>
+  <si>
+    <t>is k paar, is had se agay</t>
+  </si>
+  <si>
+    <t>if you will go beyond it, you will be charged</t>
+  </si>
+  <si>
+    <t>retention</t>
+  </si>
+  <si>
+    <t>barkarar</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>azab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bullies </t>
+  </si>
+  <si>
+    <t>gunda gardi</t>
+  </si>
+  <si>
+    <t>willingness</t>
+  </si>
+  <si>
+    <t>raza mandi</t>
+  </si>
+  <si>
+    <t>imitate</t>
+  </si>
+  <si>
+    <t>nakal karna</t>
+  </si>
+  <si>
+    <t>he couldn't imitate the lee's martial arts style.</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>munakid hona, thaam lena</t>
+  </si>
+  <si>
+    <t>he held on his dreams</t>
+  </si>
+  <si>
+    <t>circumstances</t>
+  </si>
+  <si>
+    <t>hallat</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>daba dena, kuchal dena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he supported his friend to suppress his freedom </t>
+  </si>
+  <si>
+    <t>rumble</t>
+  </si>
+  <si>
+    <t>sake</t>
+  </si>
+  <si>
+    <t>wasta</t>
+  </si>
+  <si>
+    <t>servant</t>
+  </si>
+  <si>
+    <t>nokar</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>gulam</t>
+  </si>
+  <si>
+    <t>afra tufri, gigirana, garaj</t>
+  </si>
+  <si>
+    <t>thunder runbled in a distance</t>
+  </si>
+  <si>
+    <t>torment</t>
+  </si>
+  <si>
+    <t>punishment</t>
+  </si>
+  <si>
+    <t>saza</t>
+  </si>
+  <si>
+    <t>the company has exellent staff retention rate, but expansion came at a price. Research into retention is the important key to exploration and analysis</t>
+  </si>
+  <si>
+    <t>wakfiyat, sahi simt ka tayun</t>
+  </si>
+  <si>
+    <t>organized</t>
+  </si>
+  <si>
+    <t>tarteeb dena</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>intezam karna</t>
+  </si>
+  <si>
+    <t>compute</t>
+  </si>
+  <si>
+    <t>hisaad karna</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>wasail</t>
+  </si>
+  <si>
+    <t>implies</t>
+  </si>
+  <si>
+    <t>takleed</t>
+  </si>
+  <si>
+    <t>it implies you to made it to final destination.</t>
+  </si>
+  <si>
+    <t>interruption</t>
+  </si>
+  <si>
+    <t>rokawat</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>wazeha karna</t>
+  </si>
+  <si>
+    <t>varient</t>
+  </si>
+  <si>
+    <t>mukhtalif</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>milap</t>
   </si>
 </sst>
 </file>
@@ -1128,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB758246-E4A9-48D7-84EE-CBBFBF89A660}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1957,14 +2155,270 @@
         <v>204</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>206</v>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{E5B6A3AD-4651-44B9-A7E4-DCA0189186CC}"/>
+  <autoFilter ref="A1:C1" xr:uid="{3393FCEF-9F13-48EA-96E9-BFAA81E62D60}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F872C132-5B2F-4CD2-BE9F-BD44FB431777}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C14D28-3B07-4064-9CC2-E0CB2276F3B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F486E1B-9B78-4070-A5EF-3550AE21D130}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$166</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="382">
   <si>
     <t>Word</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>conviction</t>
-  </si>
-  <si>
-    <t>saza yabi</t>
-  </si>
-  <si>
-    <t>in the light of evidence, a conviction seems certain.</t>
   </si>
   <si>
     <t>convince</t>
@@ -529,9 +523,6 @@
     <t>gustakh</t>
   </si>
   <si>
-    <t>bardasht karna, pabandy karna, baki rehna, paeydar</t>
-  </si>
-  <si>
     <t>abide</t>
   </si>
   <si>
@@ -917,13 +908,399 @@
   </si>
   <si>
     <t>milap</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>pakka, thos</t>
+  </si>
+  <si>
+    <t>Ya ALLAH PAK please firm our hearts on "LA ILAAHA ILLALLAH"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragging </t>
+  </si>
+  <si>
+    <t>ghaseetna</t>
+  </si>
+  <si>
+    <t>gir jana, toot jana</t>
+  </si>
+  <si>
+    <t>collapse, cave in</t>
+  </si>
+  <si>
+    <t>supination</t>
+  </si>
+  <si>
+    <t>greeting</t>
+  </si>
+  <si>
+    <t>hath phelana, mangana</t>
+  </si>
+  <si>
+    <t>salam, khair makdam</t>
+  </si>
+  <si>
+    <t>faithful</t>
+  </si>
+  <si>
+    <t>wafa dar</t>
+  </si>
+  <si>
+    <t>turban</t>
+  </si>
+  <si>
+    <t>amama</t>
+  </si>
+  <si>
+    <t>The seeds yield a rich oil. Our yield of wheat increased this year.</t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>kharab karna</t>
+  </si>
+  <si>
+    <t>ruin</t>
+  </si>
+  <si>
+    <t>tabahi</t>
+  </si>
+  <si>
+    <t>offensive</t>
+  </si>
+  <si>
+    <t>jarhana, na pasandeeda</t>
+  </si>
+  <si>
+    <t>praised</t>
+  </si>
+  <si>
+    <t>tareef</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>tareef karna</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>takmeel</t>
+  </si>
+  <si>
+    <t>Salt is the perfect complement to pepper when making popcorn.(It relates to something that completes another thing, or something that goes well with another thing.)</t>
+  </si>
+  <si>
+    <t>One friend complimented another’s shoes.</t>
+  </si>
+  <si>
+    <t>feminist</t>
+  </si>
+  <si>
+    <t>the doctrine that advocates the equal rights for woman</t>
+  </si>
+  <si>
+    <t>imparting</t>
+  </si>
+  <si>
+    <t>ata karna</t>
+  </si>
+  <si>
+    <t>disparage, disdained</t>
+  </si>
+  <si>
+    <t>haqeer samajhna, na pasand karna</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>bunyadi tor pe</t>
+  </si>
+  <si>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>bayana</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>us par, kisi cheez k according</t>
+  </si>
+  <si>
+    <t>fani, na kara, na pazeer</t>
+  </si>
+  <si>
+    <t>perish</t>
+  </si>
+  <si>
+    <t>integrity</t>
+  </si>
+  <si>
+    <t>dayanat</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>sadaqat</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>sensation</t>
+  </si>
+  <si>
+    <t>limbs</t>
+  </si>
+  <si>
+    <t>body parts</t>
+  </si>
+  <si>
+    <t>cherish</t>
+  </si>
+  <si>
+    <t>palna, posna</t>
+  </si>
+  <si>
+    <t>revolution</t>
+  </si>
+  <si>
+    <t>inkelab</t>
+  </si>
+  <si>
+    <t>constitution</t>
+  </si>
+  <si>
+    <t>aain</t>
+  </si>
+  <si>
+    <t>offend</t>
+  </si>
+  <si>
+    <t>naraz karna</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>jhund</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>takheer, posheeda</t>
+  </si>
+  <si>
+    <t>shard</t>
+  </si>
+  <si>
+    <t>sheeshey ki kirchi,pathar, atish fishan pahar ka tukra</t>
+  </si>
+  <si>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>talab karna</t>
+  </si>
+  <si>
+    <t>fleet</t>
+  </si>
+  <si>
+    <t>beyra</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>ataat, takmeel</t>
+  </si>
+  <si>
+    <t>pious</t>
+  </si>
+  <si>
+    <t>takwa</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>daleel karna</t>
+  </si>
+  <si>
+    <t>khawahish</t>
+  </si>
+  <si>
+    <t>moral obligation</t>
+  </si>
+  <si>
+    <t>ekhlaki zima dari</t>
+  </si>
+  <si>
+    <t>pasdari karna, bardasht karna, pabandy karna, baki rehna, paeydar</t>
+  </si>
+  <si>
+    <t>I can't abide people with no sense of humour. Please abide the traffic laws</t>
+  </si>
+  <si>
+    <t>saza yafta</t>
+  </si>
+  <si>
+    <t>in the light of evidence, a conviction seems certain. He is convicted for this crime.</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>anjaam, nateeja</t>
+  </si>
+  <si>
+    <t>sabit kadam rehna</t>
+  </si>
+  <si>
+    <t>persevere</t>
+  </si>
+  <si>
+    <t>persecution</t>
+  </si>
+  <si>
+    <t>zulm o sitam karna, satana</t>
+  </si>
+  <si>
+    <t>They were persecuted for their beliefs.</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>akeeda</t>
+  </si>
+  <si>
+    <t>relent</t>
+  </si>
+  <si>
+    <t>naram hona, pighal jana</t>
+  </si>
+  <si>
+    <t>relentless</t>
+  </si>
+  <si>
+    <t>be lagaam</t>
+  </si>
+  <si>
+    <t>the country's leader relentlessly persecuted those who fought against regime.</t>
+  </si>
+  <si>
+    <t>oppressed</t>
+  </si>
+  <si>
+    <t>zulm o sitam, zabardasti, jabar</t>
+  </si>
+  <si>
+    <t>atrocities</t>
+  </si>
+  <si>
+    <t>mazalim, intehai hamakat</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>banawat, tashkeel</t>
+  </si>
+  <si>
+    <t>marching</t>
+  </si>
+  <si>
+    <t>agey bharna, had par</t>
+  </si>
+  <si>
+    <t>punt</t>
+  </si>
+  <si>
+    <t>shart lagana</t>
+  </si>
+  <si>
+    <r>
+      <t>The book explains the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>formation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the planets. The soldiers were marching in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>formation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The team ran on the field and lined up in a punt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>formation</t>
+    </r>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>sakht geeri, shadeed</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>zehar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1335,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1326,18 +1716,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB758246-E4A9-48D7-84EE-CBBFBF89A660}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="81.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="128.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="158.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="27" customHeight="1">
@@ -1368,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1389,10 +1779,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>349</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1416,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1448,10 +1841,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1475,213 +1868,213 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1689,736 +2082,1173 @@
         <v>11</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C128" s="8" t="s">
         <v>272</v>
       </c>
     </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75">
+      <c r="A175" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{3393FCEF-9F13-48EA-96E9-BFAA81E62D60}"/>
+  <autoFilter ref="A1:C166" xr:uid="{0E04EA2E-C905-45E1-B1E9-58863C857DF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C14D28-3B07-4064-9CC2-E0CB2276F3B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE348C90-432B-4139-8E4B-4CF706F908CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F486E1B-9B78-4070-A5EF-3550AE21D130}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="386">
   <si>
     <t>Word</t>
   </si>
@@ -1294,6 +1294,18 @@
   </si>
   <si>
     <t>zehar</t>
+  </si>
+  <si>
+    <t>solidatory</t>
+  </si>
+  <si>
+    <t>yakjehti</t>
+  </si>
+  <si>
+    <t>genoside</t>
+  </si>
+  <si>
+    <t>nasal kashi</t>
   </si>
 </sst>
 </file>
@@ -1716,11 +1728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB758246-E4A9-48D7-84EE-CBBFBF89A660}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3247,6 +3259,22 @@
         <v>381</v>
       </c>
     </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C166" xr:uid="{0E04EA2E-C905-45E1-B1E9-58863C857DF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
